--- a/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
+++ b/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B6F6C-542C-D74E-9B52-841211B3D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA199DC-D980-0546-9095-ADD5F4D817F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38800" yWindow="500" windowWidth="38340" windowHeight="25840" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43660" yWindow="3660" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="studyDesignPopulations" sheetId="7" r:id="rId7"/>
     <sheet name="studyDesignOE" sheetId="8" r:id="rId8"/>
     <sheet name="studyDesignEstimands" sheetId="9" r:id="rId9"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="254">
   <si>
     <t>Epoch</t>
   </si>
@@ -397,9 +398,6 @@
     <t>studyDesignRationale</t>
   </si>
   <si>
-    <t>"Study design rationale put here"</t>
-  </si>
-  <si>
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
@@ -770,6 +768,45 @@
   </si>
   <si>
     <t>SNOMED: 840539006=Disease caused by Severe acute respiratory syndrome coronavirus 2 (disorder), ICD-10:U07.1 = COVID-19 virus identified</t>
+  </si>
+  <si>
+    <t>procedureType</t>
+  </si>
+  <si>
+    <t>procedureCode</t>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345678=Test</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>SNOMED: 12345679=Test</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Only do it they have man flu</t>
+  </si>
+  <si>
+    <t>There are currently no drugs licensed for the treatment of patients with COVID-19. Given the results of studies outlined above, TCZ, along with standard of care (SOC) treatment, could provide efficacy, offering the potential to treat COVID-19 in hospitalized populations more effectively than current SOC alone. Extensive safety data have previously been generated on the use of TCZ in other indications. Therefore, placebocontrolled study in combination with SOC to assess safety and efficacy of TCZ in hospitalized patients with severe COVID-19 neumonia is justified to address the high unmet need and burden of disease in this severely ill population.</t>
+  </si>
+  <si>
+    <t>Arms/Epochs</t>
   </si>
 </sst>
 </file>
@@ -854,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -927,6 +964,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -938,18 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,19 +1324,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
         <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="34" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,7 +1454,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1345,68 +1462,68 @@
         <v>96</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>222</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="1">
@@ -1417,18 +1534,18 @@
         <v>43908</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="1">
@@ -1439,18 +1556,18 @@
         <v>43935</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>221</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="1">
@@ -1461,7 +1578,7 @@
         <v>43993</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1591,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1500,7 +1617,7 @@
         <v>102</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1514,7 +1631,7 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>107</v>
@@ -1531,7 +1648,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
         <v>108</v>
@@ -1548,13 +1665,13 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
         <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1570,7 +1687,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,87 +1700,89 @@
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+        <v>232</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+        <v>233</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
@@ -1673,9 +1792,11 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="B10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>41</v>
@@ -1692,42 +1813,42 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1735,11 +1856,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1768,11 +1889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1783,52 +1904,52 @@
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AL1" s="31"/>
+      <c r="AL1" s="38"/>
     </row>
     <row r="2" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -1940,11 +2061,11 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>86</v>
@@ -2056,8 +2177,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
@@ -2168,8 +2289,8 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2280,8 +2401,8 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
@@ -2388,12 +2509,12 @@
         <v>82</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2504,8 +2625,8 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2808,7 +2929,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -5728,72 +5849,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5820,36 +5941,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5876,25 +5997,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -5902,22 +6023,22 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -5925,22 +6046,22 @@
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5950,14 +6071,14 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -5967,14 +6088,14 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5984,14 +6105,14 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -6001,14 +6122,14 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -6018,14 +6139,14 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -6035,14 +6156,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -6052,14 +6173,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6069,14 +6190,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -6086,14 +6207,14 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -6103,14 +6224,14 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -6394,54 +6515,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
+++ b/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714B62EE-7AC9-6B40-900F-E76247405AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAE84B-55E1-8B49-86EF-2768023BC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45060" yWindow="7800" windowWidth="56520" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45060" yWindow="7800" windowWidth="56520" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="335">
   <si>
     <t>Epoch</t>
   </si>
@@ -1034,6 +1034,24 @@
   </si>
   <si>
     <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1220,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2741,7 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
@@ -2755,49 +2773,49 @@
       <c r="A1" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -2814,54 +2832,54 @@
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2932,16 +2950,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7654,69 +7672,89 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="29" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="29" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>241</v>
       </c>
       <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
         <v>242</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>244</v>
       </c>
       <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
         <v>242</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
+++ b/Deliverables/IG/examples/Roche Phase 3 NCT04320615.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAE84B-55E1-8B49-86EF-2768023BC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C18EF95-2645-8145-A7FC-EF41709BAC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45060" yWindow="7800" windowWidth="56520" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="37280" yWindow="4440" windowWidth="56520" windowHeight="19480" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="358">
   <si>
     <t>Epoch</t>
   </si>
@@ -1052,6 +1054,75 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>Tocilizumab with Standard of Care</t>
+  </si>
+  <si>
+    <t>Placebo with Standard of Care</t>
+  </si>
+  <si>
+    <t>Completion Epoch</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1230,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,7 +1622,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,6 +1790,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="29" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
@@ -2502,7 +2742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2625,7 +2865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2759,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2967,6 +3207,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A249A8FC-0BFB-B542-9B53-D076A9E0F532}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D777F3-5BEA-F342-A5A3-C0203B86F3C9}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:AO36"/>
   <sheetViews>
@@ -6932,7 +7339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7022,7 +7429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7078,7 +7485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -7593,170 +8000,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="29" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>